--- a/backend/database/PostgreSQL-first.xlsx
+++ b/backend/database/PostgreSQL-first.xlsx
@@ -22,12 +22,6 @@
     <t>WITH OWNER postgres TEMPLATE template0 ENCODING 'WIN1252';</t>
   </si>
   <si>
-    <t>newcmms</t>
-  </si>
-  <si>
-    <t>\c newcmms</t>
-  </si>
-  <si>
     <t>CREATE EXTENSION IF NOT EXISTS pgcrypto;</t>
   </si>
   <si>
@@ -48,6 +42,12 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <t>cmms2</t>
+  </si>
+  <si>
+    <t>\c cmms2</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -427,22 +427,22 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
